--- a/testas.xlsx
+++ b/testas.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView minimized="1" xWindow="90" yWindow="375" windowWidth="20430" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -105,6 +95,66 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>arrayexp</t>
+  </si>
+  <si>
+    <t>GJH</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PU</t>
   </si>
 </sst>
 </file>
@@ -155,9 +205,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -205,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -436,36 +483,69 @@
     <col min="1" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="1">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="X1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="Y1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="Z1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="AA1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="AB1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="AC1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,7 +559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -564,6 +644,9 @@
       <c r="AD3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AE3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH3" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +674,11 @@
       <c r="AP3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -627,21 +713,24 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
         <v>1</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH4" s="1" t="s">
@@ -654,25 +743,28 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -724,14 +816,17 @@
       <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>0</v>
@@ -743,19 +838,22 @@
         <v>24</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -807,7 +905,10 @@
       <c r="AC6" s="1">
         <v>1</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH6" s="1" t="s">
@@ -823,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>26</v>
@@ -835,10 +936,13 @@
         <v>24</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -917,6 +1021,9 @@
       <c r="AD7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AE7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH7" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,8 +1051,11 @@
       <c r="AP7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -977,27 +1087,30 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC8" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -1010,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AL8" s="1" t="s">
         <v>24</v>
@@ -1025,10 +1138,13 @@
         <v>26</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1057,27 +1173,30 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="s">
@@ -1087,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>24</v>
@@ -1099,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1137,27 +1259,30 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
+        <v>5</v>
+      </c>
+      <c r="X10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
         <v>6</v>
       </c>
-      <c r="X10" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>8</v>
-      </c>
       <c r="AC10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -1170,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AL10" s="1" t="s">
         <v>25</v>
@@ -1182,13 +1307,16 @@
         <v>26</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1256,12 +1384,15 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC11" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH11" s="1" t="s">
@@ -1286,13 +1417,16 @@
         <v>24</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1315,46 +1449,49 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>24</v>
@@ -1363,10 +1500,13 @@
         <v>24</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1395,58 +1535,64 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1472,27 +1618,30 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X14" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y14" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AD14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH14" s="1" t="s">
@@ -1511,19 +1660,22 @@
         <v>26</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1549,27 +1701,30 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X15" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y15" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z15" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA15" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB15" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC15" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH15" s="1" t="s">
@@ -1579,7 +1734,7 @@
         <v>24</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>24</v>
@@ -1588,19 +1743,22 @@
         <v>24</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1626,27 +1784,30 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X16" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y16" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC16" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH16" s="1" t="s">
@@ -1659,25 +1820,28 @@
         <v>24</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1762,6 +1926,9 @@
       <c r="AD17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AE17" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,28 +1956,41 @@
       <c r="AP17" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,32 +2025,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y31" s="1" t="s">
         <v>0</v>
       </c>

--- a/testas.xlsx
+++ b/testas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView minimized="1" xWindow="90" yWindow="375" windowWidth="20430" windowHeight="11175"/>
+    <workbookView xWindow="-75" yWindow="-75" windowWidth="20430" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -133,9 +134,6 @@
     <t>PD</t>
   </si>
   <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>RH</t>
   </si>
   <si>
@@ -155,6 +153,12 @@
   </si>
   <si>
     <t>PU</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -475,7 +479,7 @@
   <dimension ref="A1:AQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -826,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>0</v>
@@ -924,7 +928,7 @@
         <v>26</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>26</v>
@@ -1138,7 +1142,7 @@
         <v>26</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>0</v>
@@ -1218,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>26</v>
@@ -1417,7 +1421,7 @@
         <v>24</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>24</v>
@@ -1488,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>24</v>
@@ -1568,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>24</v>
@@ -1583,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>24</v>
@@ -1654,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AL14" s="1" t="s">
         <v>26</v>
